--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -533,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2371.254585605197</v>
+        <v>2152.5228046837092</v>
       </c>
       <c r="C7">
         <v>72892.209646025047</v>
       </c>
       <c r="D7">
-        <v>1983.4588466042601</v>
+        <v>2240.3366623045649</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>386.06424455956295</v>
+        <v>828.87802963248282</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>59879.803917733407</v>
+        <v>59879.801476570057</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +603,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1023.5114056952557</v>
+        <v>857.61515016928058</v>
       </c>
       <c r="C12">
         <v>80424.421199128425</v>
       </c>
       <c r="D12">
-        <v>60461.285299795585</v>
+        <v>60461.282273553916</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1123.5066739910148</v>
+        <v>1123.5071254735544</v>
       </c>
       <c r="C14">
         <v>52514.594628003571</v>
       </c>
       <c r="D14">
-        <v>45313.123635201315</v>
+        <v>45313.121387694635</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3141.5018658804383</v>
+        <v>3145.9203505575929</v>
       </c>
       <c r="C17">
-        <v>104984.39211723401</v>
+        <v>105004.66312104609</v>
       </c>
       <c r="D17">
-        <v>2523.0811781279658</v>
+        <v>2593.0483707991584</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5866.5225302918543</v>
+        <v>3192.1967309957936</v>
       </c>
       <c r="C18">
-        <v>154225.69031318402</v>
+        <v>154414.22732961265</v>
       </c>
       <c r="D18">
-        <v>5704.6456254361419</v>
+        <v>5543.0504902561624</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>813.92485815811767</v>
+        <v>1016.5024344600539</v>
       </c>
       <c r="C19">
-        <v>233056.27310980641</v>
+        <v>231016.48410824523</v>
       </c>
       <c r="D19">
-        <v>61929.691033382347</v>
+        <v>61929.689145887627</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6897.2467879646547</v>
+        <v>7079.5075369545866</v>
       </c>
       <c r="C20">
-        <v>270595.55552290636</v>
+        <v>273470.08635146299</v>
       </c>
       <c r="D20">
-        <v>7510.3445601109352</v>
+        <v>7382.8512321342769</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1171.7381022518562</v>
+        <v>692.38373778839502</v>
       </c>
       <c r="C22">
         <v>62958.366033790095</v>
       </c>
       <c r="D22">
-        <v>66388.986728344913</v>
+        <v>66388.984591047309</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>581.02317458190385</v>
+        <v>594.33959245889866</v>
       </c>
       <c r="C23">
-        <v>77712.786054656841</v>
+        <v>81578.662992775047</v>
       </c>
       <c r="D23">
-        <v>60144.484642234616</v>
+        <v>60144.482330302089</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>573.3963788273353</v>
+        <v>620.46790137174219</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>63044.900716744014</v>
+        <v>63044.899021915939</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>605.72700877760201</v>
+        <v>605.72843377255117</v>
       </c>
       <c r="C25">
         <v>55678.83123240689</v>
       </c>
       <c r="D25">
-        <v>60111.822452407803</v>
+        <v>60111.820385826679</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3379.8332764429242</v>
+        <v>3371.2323336322597</v>
       </c>
       <c r="C27">
-        <v>238141.94232723478</v>
+        <v>240525.61120283819</v>
       </c>
       <c r="D27">
-        <v>61617.005281356265</v>
+        <v>61617.002197267859</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7355.9247140787265</v>
+        <v>7417.3410388615503</v>
       </c>
       <c r="C28">
-        <v>286767.93200058246</v>
+        <v>289394.2297102611</v>
       </c>
       <c r="D28">
-        <v>6596.1332231496444</v>
+        <v>6574.2362131088357</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -533,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2152.5228046837092</v>
+        <v>2158.5577258019043</v>
       </c>
       <c r="C7">
         <v>72892.209646025047</v>
       </c>
       <c r="D7">
-        <v>2240.3366623045649</v>
+        <v>2224.8751303977206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>828.87802963248282</v>
+        <v>842.60026661799202</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1123.5071254735544</v>
+        <v>975.42889992313644</v>
       </c>
       <c r="C14">
-        <v>52514.594628003571</v>
+        <v>52513.94549326141</v>
       </c>
       <c r="D14">
         <v>45313.121387694635</v>
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3145.9203505575929</v>
+        <v>3210.5350387796743</v>
       </c>
       <c r="C17">
-        <v>105004.66312104609</v>
+        <v>109817.62953418112</v>
       </c>
       <c r="D17">
-        <v>2593.0483707991584</v>
+        <v>2582.0413660436884</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3192.1967309957936</v>
+        <v>3160.9167526535193</v>
       </c>
       <c r="C18">
-        <v>154414.22732961265</v>
+        <v>154852.87741765584</v>
       </c>
       <c r="D18">
-        <v>5543.0504902561624</v>
+        <v>5585.0394878110656</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1016.5024344600539</v>
+        <v>812.19374298080118</v>
       </c>
       <c r="C19">
-        <v>231016.48410824523</v>
+        <v>231550.00333940168</v>
       </c>
       <c r="D19">
         <v>61929.689145887627</v>
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7079.5075369545866</v>
+        <v>6888.0287740829299</v>
       </c>
       <c r="C20">
-        <v>273470.08635146299</v>
+        <v>270181.46518217353</v>
       </c>
       <c r="D20">
-        <v>7382.8512321342769</v>
+        <v>7466.419295420651</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>692.38373778839502</v>
+        <v>1053.0900335721303</v>
       </c>
       <c r="C22">
         <v>62958.366033790095</v>
@@ -757,10 +757,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>594.33959245889866</v>
+        <v>581.02458859681474</v>
       </c>
       <c r="C23">
-        <v>81578.662992775047</v>
+        <v>77712.786054656841</v>
       </c>
       <c r="D23">
         <v>60144.482330302089</v>
@@ -771,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>620.46790137174219</v>
+        <v>573.39782350605412</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>605.72843377255117</v>
+        <v>600.64919257420979</v>
       </c>
       <c r="C25">
         <v>55678.83123240689</v>
@@ -813,10 +813,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3371.2323336322597</v>
+        <v>3327.9327645134244</v>
       </c>
       <c r="C27">
-        <v>240525.61120283819</v>
+        <v>239064.21059067981</v>
       </c>
       <c r="D27">
         <v>61617.002197267859</v>
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7417.3410388615503</v>
+        <v>7419.3381679044796</v>
       </c>
       <c r="C28">
-        <v>289394.2297102611</v>
+        <v>287053.8356120314</v>
       </c>
       <c r="D28">
-        <v>6574.2362131088357</v>
+        <v>6516.8801523460479</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,141 +459,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2158.5577258019043</v>
+        <v>2057.5853342036689</v>
       </c>
       <c r="C7">
-        <v>72892.209646025047</v>
+        <v>73187.27039676116</v>
       </c>
       <c r="D7">
-        <v>2224.8751303977206</v>
+        <v>1637.0359030066611</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>842.60026661799202</v>
+        <v>741.60154071836155</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>59879.801476570057</v>
+        <v>60058.615613782968</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,83 +527,56 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>857.61515016928058</v>
+        <v>1021.0115996368736</v>
       </c>
       <c r="C12">
-        <v>80424.421199128425</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>60461.282273553916</v>
+        <v>60042.538077040212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>975.42889992313644</v>
+        <v>1017.7456914109041</v>
       </c>
       <c r="C14">
-        <v>52513.94549326141</v>
+        <v>22007.769192199543</v>
       </c>
       <c r="D14">
-        <v>45313.121387694635</v>
+        <v>32074.47201424107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3210.5350387796743</v>
+        <v>3022.1657283353525</v>
       </c>
       <c r="C17">
-        <v>109817.62953418112</v>
+        <v>106207.13997045124</v>
       </c>
       <c r="D17">
-        <v>2582.0413660436884</v>
+        <v>2521.7475685541099</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3160.9167526535193</v>
+        <v>5968.872656911175</v>
       </c>
       <c r="C18">
-        <v>154852.87741765584</v>
+        <v>108685.87564136037</v>
       </c>
       <c r="D18">
-        <v>5585.0394878110656</v>
+        <v>5733.023327330091</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>812.19374298080118</v>
+        <v>764.37264664711483</v>
       </c>
       <c r="C19">
-        <v>231550.00333940168</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>61929.689145887627</v>
+        <v>61768.08185027646</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +612,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6888.0287740829299</v>
+        <v>6463.9516945768892</v>
       </c>
       <c r="C20">
-        <v>270181.46518217353</v>
+        <v>212192.50511015704</v>
       </c>
       <c r="D20">
-        <v>7466.419295420651</v>
+        <v>7660.6230599706832</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +626,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>87.901497846762595</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>76658.826509068138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +640,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1053.0900335721303</v>
+        <v>743.12690180320158</v>
       </c>
       <c r="C22">
-        <v>62958.366033790095</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>66388.984591047309</v>
+        <v>66158.105600168492</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +654,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>581.02458859681474</v>
+        <v>808.95857475450384</v>
       </c>
       <c r="C23">
-        <v>77712.786054656841</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>60144.482330302089</v>
+        <v>60665.239349189083</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +668,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>573.39782350605412</v>
+        <v>824.15457453162492</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>63044.899021915939</v>
+        <v>63007.538830683436</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +682,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>600.64919257420979</v>
+        <v>784.45259281914196</v>
       </c>
       <c r="C25">
-        <v>55678.83123240689</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>60111.820385826679</v>
+        <v>60742.167990994021</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +696,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1762.8309534278849</v>
+        <v>867.05002640084581</v>
       </c>
       <c r="C26">
-        <v>55013.857283806166</v>
+        <v>27630.948019681993</v>
       </c>
       <c r="D26">
-        <v>1408.7642291711429</v>
+        <v>50453.645874829395</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3327.9327645134244</v>
+        <v>4200.9117495755672</v>
       </c>
       <c r="C27">
-        <v>239064.21059067981</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>61617.002197267859</v>
+        <v>59868.309374172648</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +724,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7419.3381679044796</v>
+        <v>6903.2641583531558</v>
       </c>
       <c r="C28">
-        <v>287053.8356120314</v>
+        <v>259860.99340165633</v>
       </c>
       <c r="D28">
-        <v>6516.8801523460479</v>
+        <v>6488.0581168295048</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2057.5853342036689</v>
+        <v>2060.9468865944887</v>
       </c>
       <c r="C7">
-        <v>73187.27039676116</v>
+        <v>73592.327179765198</v>
       </c>
       <c r="D7">
-        <v>1637.0359030066611</v>
+        <v>1840.4857955840102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>741.60154071836155</v>
+        <v>1029.8374098269771</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>60058.615613782968</v>
+        <v>59490.093710174246</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1021.0115996368736</v>
+        <v>1118.6298522398338</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>60042.538077040212</v>
+        <v>52675.340891975153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,13 +546,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1017.7456914109041</v>
+        <v>1030.1160733044671</v>
       </c>
       <c r="C14">
         <v>22007.769192199543</v>
       </c>
       <c r="D14">
-        <v>32074.47201424107</v>
+        <v>32270.382857352699</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3022.1657283353525</v>
+        <v>2969.3100070159107</v>
       </c>
       <c r="C17">
-        <v>106207.13997045124</v>
+        <v>108858.86699265332</v>
       </c>
       <c r="D17">
-        <v>2521.7475685541099</v>
+        <v>2534.6076892404935</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5968.872656911175</v>
+        <v>2930.6553436945082</v>
       </c>
       <c r="C18">
-        <v>108685.87564136037</v>
+        <v>107623.98025053306</v>
       </c>
       <c r="D18">
-        <v>5733.023327330091</v>
+        <v>5595.1542128661213</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>764.37264664711483</v>
+        <v>1024.9619652441672</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>61768.08185027646</v>
+        <v>62332.306466173672</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6463.9516945768892</v>
+        <v>6055.1228261945453</v>
       </c>
       <c r="C20">
-        <v>212192.50511015704</v>
+        <v>212559.3441949547</v>
       </c>
       <c r="D20">
-        <v>7660.6230599706832</v>
+        <v>6937.5134681139371</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87.901497846762595</v>
+        <v>124.52712194958033</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>743.12690180320158</v>
+        <v>1082.6159223638724</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>66158.105600168492</v>
+        <v>66782.766130014672</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,13 +654,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>808.95857475450384</v>
+        <v>1008.6125205841707</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>60665.239349189083</v>
+        <v>61171.743188536529</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>824.15457453162492</v>
+        <v>1077.1660490929664</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>63007.538830683436</v>
+        <v>60068.167449748937</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>784.45259281914196</v>
+        <v>638.14336637155009</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>60742.167990994021</v>
+        <v>59882.547272092561</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>867.05002640084581</v>
+        <v>1717.3917210581315</v>
       </c>
       <c r="C26">
-        <v>27630.948019681993</v>
+        <v>55135.954922450692</v>
       </c>
       <c r="D26">
-        <v>50453.645874829395</v>
+        <v>2089.1864249921691</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4200.9117495755672</v>
+        <v>1274.4336159711088</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>59868.309374172648</v>
+        <v>60418.339181479845</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6903.2641583531558</v>
+        <v>6712.6367083421674</v>
       </c>
       <c r="C28">
-        <v>259860.99340165633</v>
+        <v>257725.97748798455</v>
       </c>
       <c r="D28">
-        <v>6488.0581168295048</v>
+        <v>6404.8853861257539</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2060.9468865944887</v>
+        <v>161.7296346264153</v>
       </c>
       <c r="C7">
-        <v>73592.327179765198</v>
+        <v>5117.5131239627681</v>
       </c>
       <c r="D7">
-        <v>1840.4857955840102</v>
+        <v>770.18944889396676</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1029.8374098269771</v>
+        <v>63.164278682934899</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>566.4103816834014</v>
       </c>
       <c r="D11">
-        <v>59490.093710174246</v>
+        <v>485.09232863621469</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1118.6298522398338</v>
+        <v>132.13967867005567</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4040.7418314309457</v>
       </c>
       <c r="D12">
-        <v>52675.340891975153</v>
+        <v>2687.7006441981889</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,13 +546,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1030.1160733044671</v>
+        <v>175.92749013632553</v>
       </c>
       <c r="C14">
-        <v>22007.769192199543</v>
+        <v>6162.3692004980139</v>
       </c>
       <c r="D14">
-        <v>32270.382857352699</v>
+        <v>914.54262813522234</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2969.3100070159107</v>
+        <v>30.662937418176337</v>
       </c>
       <c r="C17">
-        <v>108858.86699265332</v>
+        <v>1796.5809491768391</v>
       </c>
       <c r="D17">
-        <v>2534.6076892404935</v>
+        <v>49.60350188072227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2930.6553436945082</v>
+        <v>127.1283340199727</v>
       </c>
       <c r="C18">
-        <v>107623.98025053306</v>
+        <v>4242.3443207263072</v>
       </c>
       <c r="D18">
-        <v>5595.1542128661213</v>
+        <v>7338.9428893081895</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1024.9619652441672</v>
+        <v>175.16231319947889</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4928.3344183865811</v>
       </c>
       <c r="D19">
-        <v>62332.306466173672</v>
+        <v>3877.4817904943302</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6055.1228261945453</v>
+        <v>21225.036201893487</v>
       </c>
       <c r="C20">
-        <v>212559.3441949547</v>
+        <v>51751.889981385997</v>
       </c>
       <c r="D20">
-        <v>6937.5134681139371</v>
+        <v>8752.6509194870105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,13 +626,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>124.52712194958033</v>
+        <v>319.639667169642</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>319.639667169642</v>
       </c>
       <c r="D21">
-        <v>76658.826509068138</v>
+        <v>319.639667169642</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,13 +640,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1082.6159223638724</v>
+        <v>342.8786566880363</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>66782.766130014672</v>
+        <v>809.32454884260824</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,13 +654,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1008.6125205841707</v>
+        <v>260.21551234944104</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>11545.5184390617</v>
       </c>
       <c r="D23">
-        <v>61171.743188536529</v>
+        <v>1616.9274212314433</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1077.1660490929664</v>
+        <v>223.20154556466869</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>9412.1790488559818</v>
       </c>
       <c r="D24">
-        <v>60068.167449748937</v>
+        <v>174.65558693212864</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>638.14336637155009</v>
+        <v>600.96864112150899</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>582.65667608396086</v>
       </c>
       <c r="D25">
-        <v>59882.547272092561</v>
+        <v>4745.8318008919241</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1717.3917210581315</v>
+        <v>49.58905418851991</v>
       </c>
       <c r="C26">
-        <v>55135.954922450692</v>
+        <v>1540.8228167344255</v>
       </c>
       <c r="D26">
-        <v>2089.1864249921691</v>
+        <v>318.9606462762498</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1274.4336159711088</v>
+        <v>88.322336280472143</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3185.5369504460787</v>
       </c>
       <c r="D27">
-        <v>60418.339181479845</v>
+        <v>1871.2572252659115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6712.6367083421674</v>
+        <v>106.21382261874271</v>
       </c>
       <c r="C28">
-        <v>257725.97748798455</v>
+        <v>3936.1051563236833</v>
       </c>
       <c r="D28">
-        <v>6404.8853861257539</v>
+        <v>448.68382031294323</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -473,6 +473,15 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>157.32353080410005</v>
+      </c>
+      <c r="C5">
+        <v>740.81715305329351</v>
+      </c>
+      <c r="D5">
+        <v>29.186054346327136</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -484,19 +493,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>161.7296346264153</v>
+        <v>165.55318547868359</v>
       </c>
       <c r="C7">
-        <v>5117.5131239627681</v>
+        <v>3447.7849909383463</v>
       </c>
       <c r="D7">
-        <v>770.18944889396676</v>
+        <v>1625.3744538197327</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>303.83950137520037</v>
+      </c>
+      <c r="C8">
+        <v>2223.7952341798837</v>
+      </c>
+      <c r="D8">
+        <v>543.56818099252303</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -513,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63.164278682934899</v>
+        <v>76.378334042006401</v>
       </c>
       <c r="C11">
-        <v>566.4103816834014</v>
+        <v>549.98600263036258</v>
       </c>
       <c r="D11">
-        <v>485.09232863621469</v>
+        <v>263.51049183335653</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>132.13967867005567</v>
+        <v>1654.8434858016274</v>
       </c>
       <c r="C12">
-        <v>4040.7418314309457</v>
+        <v>8890.0093098232683</v>
       </c>
       <c r="D12">
-        <v>2687.7006441981889</v>
+        <v>1653.3126085875306</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>175.92749013632553</v>
+        <v>1660.3703094051693</v>
       </c>
       <c r="C14">
-        <v>6162.3692004980139</v>
+        <v>4133.3879897129355</v>
       </c>
       <c r="D14">
-        <v>914.54262813522234</v>
+        <v>625.59930181884943</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.662937418176337</v>
+        <v>16.875003144853633</v>
       </c>
       <c r="C17">
-        <v>1796.5809491768391</v>
+        <v>490.30649573926831</v>
       </c>
       <c r="D17">
-        <v>49.60350188072227</v>
+        <v>472.60877742829331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>127.1283340199727</v>
+        <v>123.86361584785723</v>
       </c>
       <c r="C18">
-        <v>4242.3443207263072</v>
+        <v>2393.1237936601133</v>
       </c>
       <c r="D18">
-        <v>7338.9428893081895</v>
+        <v>3271.5438335459153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>175.16231319947889</v>
+        <v>78.699637831752852</v>
       </c>
       <c r="C19">
-        <v>4928.3344183865811</v>
+        <v>2136.2520789749456</v>
       </c>
       <c r="D19">
-        <v>3877.4817904943302</v>
+        <v>1749.0868811285004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21225.036201893487</v>
+        <v>8019.0095121843888</v>
       </c>
       <c r="C20">
-        <v>51751.889981385997</v>
+        <v>28860.401618910164</v>
       </c>
       <c r="D20">
-        <v>8752.6509194870105</v>
+        <v>4353.9728981157032</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>319.639667169642</v>
+        <v>1267.3610666925517</v>
       </c>
       <c r="C21">
-        <v>319.639667169642</v>
+        <v>5232.9900787739889</v>
       </c>
       <c r="D21">
-        <v>319.639667169642</v>
+        <v>238.72791888554764</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>342.8786566880363</v>
+        <v>339.39462024317106</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1229.4031026149398</v>
       </c>
       <c r="D22">
-        <v>809.32454884260824</v>
+        <v>364.39491045812395</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>260.21551234944104</v>
+        <v>538.83970166675851</v>
       </c>
       <c r="C23">
-        <v>11545.5184390617</v>
+        <v>6144.4341751539387</v>
       </c>
       <c r="D23">
-        <v>1616.9274212314433</v>
+        <v>1500.7126674152721</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>223.20154556466869</v>
+        <v>61.717717390886861</v>
       </c>
       <c r="C24">
-        <v>9412.1790488559818</v>
+        <v>2636.0001245948847</v>
       </c>
       <c r="D24">
-        <v>174.65558693212864</v>
+        <v>59.738967536685664</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>600.96864112150899</v>
+        <v>907.58548961933172</v>
       </c>
       <c r="C25">
-        <v>582.65667608396086</v>
+        <v>578.02913586846466</v>
       </c>
       <c r="D25">
-        <v>4745.8318008919241</v>
+        <v>2430.0538432839876</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>49.58905418851991</v>
+        <v>1122.2847966709344</v>
       </c>
       <c r="C26">
-        <v>1540.8228167344255</v>
+        <v>7319.4625846461086</v>
       </c>
       <c r="D26">
-        <v>318.9606462762498</v>
+        <v>569.45076489300266</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88.322336280472143</v>
+        <v>5666.0801951213871</v>
       </c>
       <c r="C27">
-        <v>3185.5369504460787</v>
+        <v>5324.3809191971804</v>
       </c>
       <c r="D27">
-        <v>1871.2572252659115</v>
+        <v>1152.2123076851203</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106.21382261874271</v>
+        <v>1751.7515395261112</v>
       </c>
       <c r="C28">
-        <v>3936.1051563236833</v>
+        <v>6735.1202151051266</v>
       </c>
       <c r="D28">
-        <v>448.68382031294323</v>
+        <v>424.42659291092644</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Cl.xlsx
+++ b/r_map/data_egrid_emf_Cl.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>157.32353080410005</v>
+        <v>158.97082944738966</v>
       </c>
       <c r="C5">
-        <v>740.81715305329351</v>
+        <v>741.8950961577325</v>
       </c>
       <c r="D5">
-        <v>29.186054346327136</v>
+        <v>26.252149647524135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>165.55318547868359</v>
+        <v>166.68748162564415</v>
       </c>
       <c r="C7">
-        <v>3447.7849909383463</v>
+        <v>3508.3869994848328</v>
       </c>
       <c r="D7">
-        <v>1625.3744538197327</v>
+        <v>1651.9886781408256</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>303.83950137520037</v>
+        <v>303.85093070767886</v>
       </c>
       <c r="C8">
-        <v>2223.7952341798837</v>
+        <v>2515.7976568345643</v>
       </c>
       <c r="D8">
-        <v>543.56818099252303</v>
+        <v>575.40853887706555</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76.378334042006401</v>
+        <v>81.841286077734097</v>
       </c>
       <c r="C11">
         <v>549.98600263036258</v>
       </c>
       <c r="D11">
-        <v>263.51049183335653</v>
+        <v>270.11511184407948</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1654.8434858016274</v>
+        <v>1681.8239427398062</v>
       </c>
       <c r="C12">
-        <v>8890.0093098232683</v>
+        <v>9085.581904209972</v>
       </c>
       <c r="D12">
-        <v>1653.3126085875306</v>
+        <v>1662.9494410809871</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1660.3703094051693</v>
+        <v>1656.6838907742795</v>
       </c>
       <c r="C14">
-        <v>4133.3879897129355</v>
+        <v>4134.7923456400731</v>
       </c>
       <c r="D14">
-        <v>625.59930181884943</v>
+        <v>625.63413573865967</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.875003144853633</v>
+        <v>17.192866011324565</v>
       </c>
       <c r="C17">
-        <v>490.30649573926831</v>
+        <v>491.09467172678018</v>
       </c>
       <c r="D17">
-        <v>472.60877742829331</v>
+        <v>471.41093256912598</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>123.86361584785723</v>
+        <v>136.23859446462069</v>
       </c>
       <c r="C18">
-        <v>2393.1237936601133</v>
+        <v>2388.6728025644097</v>
       </c>
       <c r="D18">
-        <v>3271.5438335459153</v>
+        <v>3234.0372034154675</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78.699637831752852</v>
+        <v>80.199673262420561</v>
       </c>
       <c r="C19">
-        <v>2136.2520789749456</v>
+        <v>2153.000516323043</v>
       </c>
       <c r="D19">
-        <v>1749.0868811285004</v>
+        <v>1749.4869938197646</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8019.0095121843888</v>
+        <v>8363.7968380756793</v>
       </c>
       <c r="C20">
-        <v>28860.401618910164</v>
+        <v>30849.821655784439</v>
       </c>
       <c r="D20">
-        <v>4353.9728981157032</v>
+        <v>4541.8512553986975</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1267.3610666925517</v>
+        <v>1285.6987388156779</v>
       </c>
       <c r="C21">
-        <v>5232.9900787739889</v>
+        <v>6067.9139580607552</v>
       </c>
       <c r="D21">
-        <v>238.72791888554764</v>
+        <v>253.7027592337414</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>339.39462024317106</v>
+        <v>340.7977514284745</v>
       </c>
       <c r="C22">
-        <v>1229.4031026149398</v>
+        <v>1235.1877670486772</v>
       </c>
       <c r="D22">
-        <v>364.39491045812395</v>
+        <v>408.6479771200701</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>538.83970166675851</v>
+        <v>548.27389376515089</v>
       </c>
       <c r="C23">
-        <v>6144.4341751539387</v>
+        <v>6381.8123306183506</v>
       </c>
       <c r="D23">
-        <v>1500.7126674152721</v>
+        <v>1530.284089409038</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>61.717717390886861</v>
+        <v>68.919612194910229</v>
       </c>
       <c r="C24">
-        <v>2636.0001245948847</v>
+        <v>2904.849567855842</v>
       </c>
       <c r="D24">
-        <v>59.738967536685664</v>
+        <v>65.110955780769785</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>907.58548961933172</v>
+        <v>911.48137746857958</v>
       </c>
       <c r="C25">
-        <v>578.02913586846466</v>
+        <v>784.21464587640139</v>
       </c>
       <c r="D25">
-        <v>2430.0538432839876</v>
+        <v>2432.8230458944254</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1122.2847966709344</v>
+        <v>1209.7157595749534</v>
       </c>
       <c r="C26">
-        <v>7319.4625846461086</v>
+        <v>8895.7260631063164</v>
       </c>
       <c r="D26">
-        <v>569.45076489300266</v>
+        <v>659.39702925757194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5666.0801951213871</v>
+        <v>6408.7615134398275</v>
       </c>
       <c r="C27">
-        <v>5324.3809191971804</v>
+        <v>5627.2125656366197</v>
       </c>
       <c r="D27">
-        <v>1152.2123076851203</v>
+        <v>1170.1316528285643</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1751.7515395261112</v>
+        <v>1782.3988299362693</v>
       </c>
       <c r="C28">
-        <v>6735.1202151051266</v>
+        <v>7202.7636055719831</v>
       </c>
       <c r="D28">
-        <v>424.42659291092644</v>
+        <v>437.92287246104371</v>
       </c>
     </row>
   </sheetData>
